--- a/fuentes/contenidos/grado10/guion07/CS_10_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado10/guion07/CS_10_07_CO_Escaleta.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\fuentes\contenidos\grado10\guion07\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="216">
   <si>
     <t>Asignatura</t>
   </si>
@@ -296,9 +291,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>M1A</t>
@@ -419,9 +411,6 @@
     <t>La cultura de masas</t>
   </si>
   <si>
-    <t>Interactivo que permite identificar las caracteísticas fundamentales en la cultura de masas y la sociedad de consumo a partir de un texto</t>
-  </si>
-  <si>
     <t>Secuencia de imágenes que aborda los diferentes tipos de conflictos en las sociedades contemporáneas</t>
   </si>
   <si>
@@ -464,9 +453,6 @@
     <t>Refuerza tu aprendizaje: La sociedad</t>
   </si>
   <si>
-    <t>Avtividades sobre La sociedad</t>
-  </si>
-  <si>
     <t>La mezcla de culturas</t>
   </si>
   <si>
@@ -542,9 +528,6 @@
     <t>Refuerza tu aprendizaje: Diversidad y conflicto</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividades sobre diversidad y conflicto </t>
-  </si>
-  <si>
     <t>Competencias</t>
   </si>
   <si>
@@ -675,13 +658,22 @@
   </si>
   <si>
     <t>CS_10_07_CO</t>
+  </si>
+  <si>
+    <t>Interactivo que permite identificar las características fundamentales en la cultura de masas y la sociedad de consumo a partir de un texto</t>
+  </si>
+  <si>
+    <t>Actividades sobre La sociedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades sobre Diversidad y conflicto </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,14 +705,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -821,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -860,20 +867,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -881,10 +874,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,12 +968,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,7 +1030,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,7 +1065,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1223,1551 +1276,1533 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.59765625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="21" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="8.1328125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="17.86328125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="9.265625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="8" style="18" customWidth="1"/>
-    <col min="15" max="15" width="18.3984375" style="27" customWidth="1"/>
-    <col min="16" max="16" width="12" style="27" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" style="27" customWidth="1"/>
-    <col min="18" max="18" width="11.73046875" style="18" customWidth="1"/>
-    <col min="19" max="19" width="11.265625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="13.86328125" style="18" customWidth="1"/>
-    <col min="21" max="21" width="21.73046875" style="18" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="18"/>
+    <col min="1" max="1" width="10.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="72.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="120.85546875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="23" style="18" customWidth="1"/>
+    <col min="13" max="13" width="7" style="18" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" style="21" customWidth="1"/>
+    <col min="16" max="16" width="12" style="21" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="40.140625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="65.28515625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="57"/>
+      <c r="O1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="33"/>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="39"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="50"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U3" s="34"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="38">
+        <v>2</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U4" s="34"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="38">
+        <v>3</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5" s="34"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="38">
+        <v>4</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U6" s="34"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="38">
+        <v>5</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>6</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="U7" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H8" s="38">
+        <v>6</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="J8" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U8" s="34"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="38">
+        <v>7</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
+      <c r="L9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q9" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U9" s="34"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="41">
         <v>8</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" s="16" t="s">
+      <c r="I10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S10" s="34" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="T10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U10" s="34"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="11">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="B11" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="38">
+        <v>9</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J11" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>6</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="D12" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="38">
+        <v>10</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="J12" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="34">
+        <v>6</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="38">
+        <v>11</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="33"/>
+      <c r="P13" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="34">
+        <v>6</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="U13" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="38">
+        <v>12</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>6</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="U14" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="38">
+        <v>13</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="M15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q15" s="34">
+        <v>6</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="38">
+        <v>14</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
+      <c r="M16" s="31"/>
+      <c r="N16" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>6</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="U16" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="11">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="B17" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="38">
+        <v>15</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="J17" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="Q17" s="34">
+        <v>6</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="U17" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="38">
+        <v>16</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U18" s="34"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="38">
+        <v>17</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R19" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U19" s="34"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="38">
+        <v>18</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10" t="s">
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R20" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U20" s="34"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="38">
+        <v>19</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="J21" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T5" s="13" t="s">
+      <c r="M21" s="31"/>
+      <c r="N21" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>6</v>
+      </c>
+      <c r="R21" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="U5" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="S21" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="11">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="B22" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="38">
         <v>20</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="I22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="Q22" s="34">
+        <v>6</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="U22" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="38">
+        <v>21</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="P23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q23" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R23" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="T23" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="34"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="38">
+        <v>22</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T6" s="13" t="s">
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R24" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="T24" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24" s="34"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="38">
+        <v>23</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="34"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="38">
+        <v>24</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="34">
+        <v>6</v>
+      </c>
+      <c r="R26" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S26" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="U6" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
+      <c r="T26" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="U26" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="11">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="B27" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="38">
+        <v>25</v>
+      </c>
+      <c r="I27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="J27" s="32"/>
+      <c r="K27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10" t="s">
+      <c r="M27" s="31"/>
+      <c r="N27" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q27" s="34">
         <v>6</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="11">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>8</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="11">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>8</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="11">
-        <v>8</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="24" t="s">
+      <c r="R27" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S27" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="U27" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>8</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="11">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>6</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T11" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="11">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>6</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T12" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="11">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>6</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T13" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="11">
-        <v>12</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>6</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T14" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="11">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>6</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="T15" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="11">
-        <v>14</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>6</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T16" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="11">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>6</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T17" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="11">
-        <v>16</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="27">
-        <v>8</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="11">
-        <v>17</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="27">
-        <v>8</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="11">
-        <v>18</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="27">
-        <v>8</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="11">
-        <v>19</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>6</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T21" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="11">
-        <v>20</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>6</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T22" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="11">
-        <v>21</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="27">
-        <v>8</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="11">
-        <v>22</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="27">
-        <v>8</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="11">
-        <v>23</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="K25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="13"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" s="11">
-        <v>24</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="13">
-        <v>6</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T26" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H27" s="11">
-        <v>25</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>6</v>
-      </c>
-      <c r="R27" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T27" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
       <c r="C28" s="17"/>
@@ -2789,7 +2824,7 @@
       <c r="T28" s="16"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="12"/>
       <c r="C29" s="17"/>
@@ -2811,7 +2846,7 @@
       <c r="T29" s="16"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="12"/>
       <c r="C30" s="17"/>
@@ -2833,7 +2868,7 @@
       <c r="T30" s="16"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="12"/>
       <c r="C31" s="17"/>
@@ -2855,7 +2890,7 @@
       <c r="T31" s="16"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="12"/>
       <c r="C32" s="17"/>
@@ -2877,7 +2912,7 @@
       <c r="T32" s="16"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="12"/>
       <c r="C33" s="17"/>
@@ -2899,7 +2934,7 @@
       <c r="T33" s="16"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="12"/>
       <c r="C34" s="17"/>
@@ -2921,7 +2956,7 @@
       <c r="T34" s="16"/>
       <c r="U34" s="13"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="12"/>
       <c r="C35" s="17"/>
@@ -2943,7 +2978,7 @@
       <c r="T35" s="16"/>
       <c r="U35" s="13"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="12"/>
       <c r="C36" s="17"/>
@@ -2965,7 +3000,7 @@
       <c r="T36" s="16"/>
       <c r="U36" s="13"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="12"/>
       <c r="C37" s="17"/>
@@ -2987,7 +3022,7 @@
       <c r="T37" s="16"/>
       <c r="U37" s="13"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="12"/>
       <c r="C38" s="17"/>
@@ -3009,7 +3044,7 @@
       <c r="T38" s="16"/>
       <c r="U38" s="13"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="12"/>
       <c r="C39" s="17"/>
@@ -3031,7 +3066,7 @@
       <c r="T39" s="16"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="12"/>
       <c r="C40" s="17"/>
@@ -3053,7 +3088,7 @@
       <c r="T40" s="16"/>
       <c r="U40" s="13"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="12"/>
       <c r="C41" s="17"/>
@@ -3075,7 +3110,7 @@
       <c r="T41" s="16"/>
       <c r="U41" s="13"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="12"/>
       <c r="C42" s="17"/>
@@ -3097,7 +3132,7 @@
       <c r="T42" s="16"/>
       <c r="U42" s="13"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="12"/>
       <c r="C43" s="17"/>
@@ -3119,7 +3154,7 @@
       <c r="T43" s="16"/>
       <c r="U43" s="13"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="12"/>
       <c r="C44" s="17"/>
@@ -3141,7 +3176,7 @@
       <c r="T44" s="16"/>
       <c r="U44" s="13"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="12"/>
       <c r="C45" s="17"/>
@@ -3163,7 +3198,7 @@
       <c r="T45" s="16"/>
       <c r="U45" s="13"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="12"/>
       <c r="C46" s="17"/>
@@ -3185,7 +3220,7 @@
       <c r="T46" s="16"/>
       <c r="U46" s="13"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="12"/>
       <c r="C47" s="17"/>
@@ -3207,7 +3242,7 @@
       <c r="T47" s="16"/>
       <c r="U47" s="13"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="12"/>
       <c r="C48" s="17"/>
@@ -3229,7 +3264,7 @@
       <c r="T48" s="16"/>
       <c r="U48" s="13"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="12"/>
       <c r="C49" s="17"/>
@@ -3251,7 +3286,7 @@
       <c r="T49" s="16"/>
       <c r="U49" s="13"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="12"/>
       <c r="C50" s="17"/>
@@ -3273,7 +3308,7 @@
       <c r="T50" s="16"/>
       <c r="U50" s="13"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="12"/>
       <c r="C51" s="17"/>
@@ -3295,7 +3330,7 @@
       <c r="T51" s="16"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="12"/>
       <c r="C52" s="17"/>
@@ -3317,7 +3352,7 @@
       <c r="T52" s="16"/>
       <c r="U52" s="13"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="12"/>
       <c r="C53" s="17"/>
@@ -3339,7 +3374,7 @@
       <c r="T53" s="16"/>
       <c r="U53" s="13"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="12"/>
       <c r="C54" s="17"/>
@@ -3361,7 +3396,7 @@
       <c r="T54" s="16"/>
       <c r="U54" s="13"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="12"/>
       <c r="C55" s="17"/>
@@ -3383,7 +3418,7 @@
       <c r="T55" s="16"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="12"/>
       <c r="C56" s="17"/>
@@ -3405,7 +3440,7 @@
       <c r="T56" s="16"/>
       <c r="U56" s="13"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="12"/>
       <c r="C57" s="17"/>
@@ -3427,7 +3462,7 @@
       <c r="T57" s="16"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="12"/>
       <c r="C58" s="17"/>
@@ -3449,7 +3484,7 @@
       <c r="T58" s="16"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="12"/>
       <c r="C59" s="17"/>
@@ -3471,7 +3506,7 @@
       <c r="T59" s="16"/>
       <c r="U59" s="13"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="12"/>
       <c r="C60" s="17"/>
@@ -3493,7 +3528,7 @@
       <c r="T60" s="16"/>
       <c r="U60" s="13"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="12"/>
       <c r="C61" s="17"/>
@@ -3515,7 +3550,7 @@
       <c r="T61" s="16"/>
       <c r="U61" s="13"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="12"/>
       <c r="C62" s="17"/>
@@ -3537,7 +3572,7 @@
       <c r="T62" s="16"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="12"/>
       <c r="C63" s="17"/>
@@ -3559,7 +3594,7 @@
       <c r="T63" s="16"/>
       <c r="U63" s="13"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="12"/>
       <c r="C64" s="17"/>
@@ -3581,7 +3616,7 @@
       <c r="T64" s="16"/>
       <c r="U64" s="13"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="12"/>
       <c r="C65" s="17"/>
@@ -3603,7 +3638,7 @@
       <c r="T65" s="16"/>
       <c r="U65" s="13"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="12"/>
       <c r="C66" s="17"/>
@@ -3625,7 +3660,7 @@
       <c r="T66" s="16"/>
       <c r="U66" s="13"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="12"/>
       <c r="C67" s="17"/>
@@ -3647,7 +3682,7 @@
       <c r="T67" s="16"/>
       <c r="U67" s="13"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="12"/>
       <c r="C68" s="17"/>
@@ -3669,7 +3704,7 @@
       <c r="T68" s="16"/>
       <c r="U68" s="13"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="12"/>
       <c r="C69" s="17"/>
@@ -3691,378 +3726,372 @@
       <c r="T69" s="16"/>
       <c r="U69" s="13"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="18" t="s">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="18" t="s">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="18" t="s">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="18" t="s">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="18" t="s">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="18" t="s">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="18" t="s">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="18" t="s">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="18" t="s">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="18" t="s">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="18" t="s">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="18" t="s">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.45"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4077,6 +4106,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4127,27 +4162,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1"/>
-    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4161,10 +4196,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4188,7 +4223,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4207,7 +4242,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4226,7 +4261,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4242,7 +4277,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4259,7 +4294,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4276,7 +4311,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4291,7 +4326,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4306,7 +4341,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4321,7 +4356,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4336,7 +4371,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4351,7 +4386,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4366,7 +4401,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4381,7 +4416,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4396,7 +4431,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4411,7 +4446,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4425,7 +4460,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4439,7 +4474,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4453,7 +4488,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4467,7 +4502,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4482,7 +4517,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4497,7 +4532,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4512,7 +4547,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4527,7 +4562,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4542,7 +4577,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4557,7 +4592,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4572,7 +4607,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4587,7 +4622,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4602,7 +4637,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4617,7 +4652,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4632,7 +4667,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4647,7 +4682,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4662,7 +4697,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4677,7 +4712,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4692,12 +4727,12 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4707,7 +4742,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4722,7 +4757,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4737,7 +4772,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4752,7 +4787,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4767,7 +4802,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4782,7 +4817,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4797,7 +4832,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4812,12 +4847,12 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4827,7 +4862,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4842,12 +4877,12 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -4857,7 +4892,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -4872,12 +4907,12 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -4887,7 +4922,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4899,7 +4934,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4911,7 +4946,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -4924,7 +4959,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -4937,7 +4972,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -4950,7 +4985,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -4963,7 +4998,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4976,7 +5011,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4989,7 +5024,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5002,7 +5037,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5015,7 +5050,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5028,7 +5063,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5041,7 +5076,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5054,7 +5089,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5067,7 +5102,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5080,7 +5115,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5093,7 +5128,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5106,7 +5141,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5119,7 +5154,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5132,7 +5167,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5145,7 +5180,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5158,7 +5193,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5171,7 +5206,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5185,7 +5220,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5199,7 +5234,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5213,7 +5248,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5227,7 +5262,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5241,7 +5276,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5255,7 +5290,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5269,7 +5304,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5283,7 +5318,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5297,7 +5332,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5311,7 +5346,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5325,7 +5360,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5339,7 +5374,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5353,7 +5388,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5367,7 +5402,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5381,7 +5416,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5395,7 +5430,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5409,7 +5444,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5423,7 +5458,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5437,7 +5472,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5451,7 +5486,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5465,7 +5500,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5479,7 +5514,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5493,7 +5528,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5507,7 +5542,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5521,7 +5556,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5535,7 +5570,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5549,7 +5584,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5563,7 +5598,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5577,7 +5612,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5591,7 +5626,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5605,7 +5640,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5619,7 +5654,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5633,7 +5668,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5647,7 +5682,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5661,7 +5696,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5675,7 +5710,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5689,7 +5724,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5703,7 +5738,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5717,7 +5752,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5731,7 +5766,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5745,7 +5780,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5759,7 +5794,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5773,7 +5808,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5787,7 +5822,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5801,7 +5836,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5815,7 +5850,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5829,7 +5864,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5843,7 +5878,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5857,7 +5892,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5871,7 +5906,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5885,7 +5920,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5899,7 +5934,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5913,7 +5948,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5927,7 +5962,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5941,7 +5976,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5955,7 +5990,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5969,7 +6004,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5983,7 +6018,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5997,7 +6032,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6011,7 +6046,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6025,7 +6060,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6039,7 +6074,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
